--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49D4F1-37E3-4B50-9E26-B9DD6FD92D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE84DF-6B3B-4FBB-BEB4-037E0F9FAD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE84DF-6B3B-4FBB-BEB4-037E0F9FAD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987ABA0-DA4B-4F81-82DE-F49DD8E040A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987ABA0-DA4B-4F81-82DE-F49DD8E040A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510F3B9-D880-4663-9459-A104E3830C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="15795" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510F3B9-D880-4663-9459-A104E3830C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908CA84-ECC0-4300-96FE-4F56609D4DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="15795" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1155" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908CA84-ECC0-4300-96FE-4F56609D4DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525E9BC-17DA-4616-A6B2-ADE2A839BD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1155" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525E9BC-17DA-4616-A6B2-ADE2A839BD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBABDAF5-18EA-406A-8C10-A08556A5277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBABDAF5-18EA-406A-8C10-A08556A5277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191514CF-D975-4B8D-8829-A7EEEF22D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191514CF-D975-4B8D-8829-A7EEEF22D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41208F-9C03-46E0-8092-21903E41D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/suppxls/Scen_Refinery.xlsx
+++ b/suppxls/Scen_Refinery.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41208F-9C03-46E0-8092-21903E41D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BY Data" sheetId="15" r:id="rId1"/>
-    <sheet name="Refinery" sheetId="2" r:id="rId2"/>
+    <sheet name="BY Data" sheetId="15" r:id="rId3"/>
+    <sheet name="Refinery" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
@@ -43,7 +43,6 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -56,7 +55,6 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -69,7 +67,6 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -199,13 +196,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -228,19 +231,13 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,13 +250,6 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -286,6 +276,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,11 +296,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -326,61 +317,111 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,51 +429,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="22">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="28">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 9 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normale_B2020" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Percent 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Percent 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Percent 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent 4 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Percent 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Comma 2" xfId="20"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Normal 10" xfId="22"/>
+    <cellStyle name="Normal 2" xfId="23"/>
+    <cellStyle name="Normal 3" xfId="24"/>
+    <cellStyle name="Normal 4" xfId="25"/>
+    <cellStyle name="Normal 4 2" xfId="26"/>
+    <cellStyle name="Normal 8" xfId="27"/>
+    <cellStyle name="Normal 9 2" xfId="28"/>
+    <cellStyle name="Normale_B2020" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="30"/>
+    <cellStyle name="Percent 3" xfId="31"/>
+    <cellStyle name="Percent 3 2" xfId="32"/>
+    <cellStyle name="Percent 3 3" xfId="33"/>
+    <cellStyle name="Percent 4" xfId="34"/>
+    <cellStyle name="Percent 4 2" xfId="35"/>
+    <cellStyle name="Percent 4 3" xfId="36"/>
+    <cellStyle name="Percent 5" xfId="37"/>
+    <cellStyle name="Percent 5 2" xfId="38"/>
+    <cellStyle name="Percent 6" xfId="39"/>
+    <cellStyle name="Percent 7" xfId="40"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="41"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -445,7 +573,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -459,7 +587,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
@@ -475,9 +603,7 @@
           <a:off x="609600" y="1343025"/>
           <a:ext cx="3657600" cy="590550"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent6">
             <a:lumMod val="20000"/>
@@ -486,7 +612,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
+            <a:schemeClr val="bg1">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -494,16 +620,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -514,7 +640,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -526,7 +652,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -537,7 +663,7 @@
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -553,7 +679,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -567,7 +693,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
@@ -583,9 +709,7 @@
           <a:off x="609600" y="2676525"/>
           <a:ext cx="5476875" cy="600075"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent6">
             <a:lumMod val="20000"/>
@@ -594,7 +718,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
+            <a:schemeClr val="bg1">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -602,16 +726,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -622,7 +746,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -634,7 +758,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -645,7 +769,7 @@
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -980,19 +1104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1129,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="19" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15">
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1061,45 +1185,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IT11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="17"/>
+    <col min="2" max="2" width="10.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28571428571429" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.14285714285714" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.4285714285714" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.14285714285714" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1240,7 @@
       </c>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:254" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="15.75" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16 254:254" ht="15">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -1186,10 +1310,10 @@
         <v>35</v>
       </c>
       <c r="H4" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I4" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>19</v>
@@ -1199,7 +1323,7 @@
       </c>
       <c r="IT4" s="10"/>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" ht="15">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -1213,10 +1337,10 @@
         <v>35</v>
       </c>
       <c r="H5" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I5" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>19</v>
@@ -1225,7 +1349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="15">
       <c r="C6" t="s">
         <v>27</v>
       </c>
@@ -1239,10 +1363,10 @@
         <v>35</v>
       </c>
       <c r="H6" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I6" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>19</v>
@@ -1251,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="15">
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -1265,10 +1389,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I7" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>19</v>
@@ -1277,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="15">
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -1291,10 +1415,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I8" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>19</v>
@@ -1303,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" ht="15">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -1317,10 +1441,10 @@
         <v>35</v>
       </c>
       <c r="H9" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I9" s="10">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>19</v>
@@ -1329,7 +1453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="15">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
         <v>27</v>
@@ -1345,10 +1469,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="I10" s="8">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="7" t="s">
@@ -1363,7 +1487,7 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" ht="15">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1512,7 @@
         <v>0.25</v>
       </c>
       <c r="T11" s="12">
-        <v>0.3</v>
+        <v>0.30</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1520,7 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>